--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2023/XuatKho/Thang12/XKSX_LK_2000LE-4G_221223.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2023/XuatKho/Thang12/XKSX_LK_2000LE-4G_221223.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\XuatNhapKho\Xuất Kho 2023\Thang12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\XuatNhapKho_2023\XuatKho\Thang12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -588,10 +588,10 @@
     <t>VT_CAP_ALU_10uF_35V</t>
   </si>
   <si>
-    <t>Hà Nội, Ngày 15 Tháng 11 Năm 2023</t>
-  </si>
-  <si>
     <t>Số: PXK : 01</t>
+  </si>
+  <si>
+    <t>Hà Nội, Ngày 01 Tháng 02 Năm 2024</t>
   </si>
 </sst>
 </file>
@@ -1541,69 +1541,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1631,16 +1568,97 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1688,33 +1706,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1778,6 +1769,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1817,6 +1817,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1827,9 +1851,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1844,26 +1865,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1889,26 +1910,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1917,21 +1932,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1974,7 +1974,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2026,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2075,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2127,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2176,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2228,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2326,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2375,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2424,7 +2424,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2468,7 +2468,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2542,7 +2542,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2883,57 +2883,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="126" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="132" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="132"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="132" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="132"/>
+      <c r="M3" s="111"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="132" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="132"/>
+      <c r="M4" s="111"/>
     </row>
     <row r="5" spans="1:13" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2960,29 +2960,29 @@
       <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
       <c r="E8" s="70" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="116" t="s">
+      <c r="G8" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116" t="s">
+      <c r="H8" s="113"/>
+      <c r="I8" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116" t="s">
+      <c r="J8" s="113"/>
+      <c r="K8" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="116"/>
+      <c r="L8" s="113"/>
       <c r="M8" s="70" t="s">
         <v>4</v>
       </c>
@@ -2991,86 +2991,86 @@
       <c r="A9" s="71">
         <v>1</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="123"/>
       <c r="E9" s="69" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="69">
         <v>985</v>
       </c>
-      <c r="G9" s="120"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="112" t="s">
+      <c r="G9" s="119"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="112"/>
+      <c r="L9" s="118"/>
       <c r="M9" s="70"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="71">
         <v>2</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="124"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="123"/>
       <c r="E10" s="69" t="s">
         <v>93</v>
       </c>
       <c r="F10" s="69">
         <v>985</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="112" t="s">
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="112"/>
+      <c r="L10" s="118"/>
       <c r="M10" s="70"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="71">
         <v>3</v>
       </c>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="69" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="69">
         <v>985</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="112" t="s">
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="112"/>
+      <c r="L11" s="118"/>
       <c r="M11" s="68"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="71">
         <v>4</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
       <c r="E12" s="69" t="s">
         <v>93</v>
       </c>
@@ -3078,58 +3078,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="112" t="s">
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="112"/>
+      <c r="L12" s="118"/>
       <c r="M12" s="68"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="113" t="s">
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="113" t="s">
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="115"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="127"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="104" t="s">
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="104" t="s">
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="106"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="130"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -3192,25 +3192,25 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="107" t="s">
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="107" t="s">
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="109"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="133"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3223,12 +3223,19 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -3245,19 +3252,12 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -3291,51 +3291,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="126" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="132" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="132"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="132" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="132"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="132" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="132"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="1:11" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -3362,23 +3362,23 @@
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
       <c r="E8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="121"/>
-      <c r="H8" s="120" t="s">
+      <c r="G8" s="120"/>
+      <c r="H8" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="134"/>
-      <c r="J8" s="121"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="120"/>
       <c r="K8" s="24" t="s">
         <v>4</v>
       </c>
@@ -3387,46 +3387,46 @@
       <c r="A9" s="73">
         <v>1</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="137"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="136"/>
       <c r="E9" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="135">
+      <c r="F9" s="134">
         <v>6</v>
       </c>
-      <c r="G9" s="137"/>
-      <c r="H9" s="135" t="s">
+      <c r="G9" s="136"/>
+      <c r="H9" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="136"/>
-      <c r="J9" s="137"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="136"/>
       <c r="K9" s="73"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="73">
         <v>2</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="137"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="136"/>
       <c r="E10" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="135">
+      <c r="F10" s="134">
         <v>4</v>
       </c>
-      <c r="G10" s="137"/>
-      <c r="H10" s="135" t="s">
+      <c r="G10" s="136"/>
+      <c r="H10" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="136"/>
-      <c r="J10" s="137"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="136"/>
       <c r="K10" s="73" t="s">
         <v>117</v>
       </c>
@@ -3435,65 +3435,65 @@
       <c r="A11" s="73">
         <v>3</v>
       </c>
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="137"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="136"/>
       <c r="E11" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="135">
+      <c r="F11" s="134">
         <v>2</v>
       </c>
-      <c r="G11" s="137"/>
-      <c r="H11" s="135" t="s">
+      <c r="G11" s="136"/>
+      <c r="H11" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="136"/>
-      <c r="J11" s="137"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="136"/>
       <c r="K11" s="73" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="113" t="s">
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="115"/>
-      <c r="H13" s="113" t="s">
+      <c r="G13" s="127"/>
+      <c r="H13" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="115"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="127"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="104" t="s">
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="106"/>
-      <c r="H14" s="104" t="s">
+      <c r="G14" s="130"/>
+      <c r="H14" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="106"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="130"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3548,23 +3548,23 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="107" t="s">
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="109"/>
-      <c r="H19" s="107" t="s">
+      <c r="G19" s="133"/>
+      <c r="H19" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="109"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="133"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3577,6 +3577,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="B9:D9"/>
@@ -3586,24 +3604,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3618,7 +3618,7 @@
   <dimension ref="A2:S88"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3636,42 +3636,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="138" t="s">
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="146" t="s">
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="146"/>
+      <c r="H2" s="152"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="146" t="s">
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="146"/>
+      <c r="H3" s="152"/>
     </row>
     <row r="4" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="144"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="146" t="s">
+      <c r="A4" s="150"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="146"/>
+      <c r="H4" s="152"/>
     </row>
     <row r="5" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="84" t="s">
@@ -3692,14 +3692,14 @@
       <c r="B6" s="94"/>
       <c r="C6" s="84"/>
       <c r="D6" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="85"/>
+      <c r="F6" s="153" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
     </row>
     <row r="7" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="84" t="s">
@@ -3759,7 +3759,7 @@
       <c r="F9" s="91">
         <v>3284</v>
       </c>
-      <c r="G9" s="150" t="s">
+      <c r="G9" s="156" t="s">
         <v>154</v>
       </c>
       <c r="H9" s="88"/>
@@ -3784,7 +3784,7 @@
       <c r="F10" s="91">
         <v>3000</v>
       </c>
-      <c r="G10" s="151"/>
+      <c r="G10" s="157"/>
       <c r="H10" s="88"/>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
       <c r="F11" s="91">
         <v>8000</v>
       </c>
-      <c r="G11" s="152"/>
+      <c r="G11" s="158"/>
       <c r="H11" s="86"/>
       <c r="S11" s="2" t="s">
         <v>137</v>
@@ -5034,12 +5034,12 @@
     </row>
     <row r="65" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="83"/>
-      <c r="B65" s="148"/>
-      <c r="C65" s="148"/>
-      <c r="D65" s="149"/>
-      <c r="E65" s="149"/>
-      <c r="F65" s="148"/>
-      <c r="G65" s="148"/>
+      <c r="B65" s="154"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="155"/>
+      <c r="F65" s="154"/>
+      <c r="G65" s="154"/>
       <c r="H65" s="74"/>
     </row>
     <row r="66" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5054,8 +5054,8 @@
     </row>
     <row r="67" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="60"/>
-      <c r="B67" s="145"/>
-      <c r="C67" s="145"/>
+      <c r="B67" s="151"/>
+      <c r="C67" s="151"/>
       <c r="D67" s="60"/>
       <c r="E67" s="60"/>
       <c r="F67" s="60"/>
@@ -5063,37 +5063,37 @@
       <c r="H67" s="60"/>
     </row>
     <row r="68" spans="1:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="155" t="s">
+      <c r="A68" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="155"/>
-      <c r="C68" s="155" t="s">
+      <c r="B68" s="140"/>
+      <c r="C68" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="155"/>
+      <c r="D68" s="140"/>
       <c r="E68" s="81"/>
-      <c r="F68" s="157" t="s">
+      <c r="F68" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="157"/>
+      <c r="G68" s="142"/>
       <c r="H68" s="78" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156" t="s">
+      <c r="B69" s="141"/>
+      <c r="C69" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="156"/>
+      <c r="D69" s="141"/>
       <c r="E69" s="82"/>
-      <c r="F69" s="156" t="s">
+      <c r="F69" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="G69" s="156"/>
+      <c r="G69" s="141"/>
       <c r="H69" s="77" t="s">
         <v>6</v>
       </c>
@@ -5134,8 +5134,8 @@
       <c r="D73" s="72"/>
       <c r="E73" s="82"/>
       <c r="F73" s="63"/>
-      <c r="G73" s="156"/>
-      <c r="H73" s="156"/>
+      <c r="G73" s="141"/>
+      <c r="H73" s="141"/>
     </row>
     <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="61"/>
@@ -5148,19 +5148,19 @@
       <c r="H74" s="61"/>
     </row>
     <row r="75" spans="1:8" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="156" t="s">
+      <c r="A75" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="156"/>
-      <c r="C75" s="156" t="s">
+      <c r="B75" s="141"/>
+      <c r="C75" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="D75" s="156"/>
+      <c r="D75" s="141"/>
       <c r="E75" s="82"/>
-      <c r="F75" s="158" t="s">
+      <c r="F75" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="G75" s="158"/>
+      <c r="G75" s="143"/>
       <c r="H75" s="77" t="s">
         <v>91</v>
       </c>
@@ -5170,9 +5170,9 @@
     </row>
     <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="102"/>
-      <c r="F77" s="154"/>
-      <c r="G77" s="154"/>
-      <c r="H77" s="154"/>
+      <c r="F77" s="139"/>
+      <c r="G77" s="139"/>
+      <c r="H77" s="139"/>
     </row>
     <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="102"/>
@@ -5185,14 +5185,14 @@
     </row>
     <row r="81" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="102"/>
-      <c r="C81" s="153" t="s">
+      <c r="C81" s="138" t="s">
         <v>109</v>
       </c>
-      <c r="D81" s="153"/>
-      <c r="E81" s="153"/>
-      <c r="F81" s="153"/>
-      <c r="G81" s="153"/>
-      <c r="H81" s="153"/>
+      <c r="D81" s="138"/>
+      <c r="E81" s="138"/>
+      <c r="F81" s="138"/>
+      <c r="G81" s="138"/>
+      <c r="H81" s="138"/>
     </row>
     <row r="82" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="102"/>
@@ -5207,6 +5207,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="G9:G11"/>
     <mergeCell ref="C81:H81"/>
     <mergeCell ref="F77:H77"/>
     <mergeCell ref="A68:B68"/>
@@ -5219,15 +5228,6 @@
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="F75:G75"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="G9:G11"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5260,99 +5260,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="171"/>
-      <c r="B1" s="172"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="162" t="s">
+      <c r="A1" s="168"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="163"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="132" t="s">
+      <c r="E1" s="160"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="132"/>
+      <c r="H1" s="111"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="174"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="132" t="s">
+      <c r="A2" s="171"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="132"/>
+      <c r="H2" s="111"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="176"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="132" t="s">
+      <c r="A3" s="173"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="132"/>
+      <c r="H3" s="111"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111" t="s">
+      <c r="G5" s="117"/>
+      <c r="H5" s="117" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="111"/>
+      <c r="H6" s="117"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="66">
         <v>1</v>
       </c>
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="181" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="161"/>
+      <c r="C7" s="182"/>
       <c r="D7" s="75" t="s">
         <v>121</v>
       </c>
@@ -5378,36 +5378,36 @@
       <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159" t="s">
+      <c r="B9" s="180"/>
+      <c r="C9" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159" t="s">
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="159"/>
+      <c r="H9" s="180"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="182"/>
-      <c r="C10" s="182" t="s">
+      <c r="B10" s="179"/>
+      <c r="C10" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182" t="s">
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="182"/>
+      <c r="H10" s="179"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -5420,27 +5420,34 @@
       <c r="H11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="180" t="s">
+      <c r="A15" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="180"/>
-      <c r="C15" s="180" t="s">
+      <c r="B15" s="177"/>
+      <c r="C15" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180" t="s">
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="180"/>
+      <c r="H15" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -5457,13 +5464,6 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -5493,8 +5493,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="186" t="s">
         <v>15</v>
       </c>
@@ -5505,8 +5505,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="189"/>
       <c r="D3" s="190"/>
       <c r="E3" s="191"/>
@@ -5515,8 +5515,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="192"/>
       <c r="D4" s="193"/>
       <c r="E4" s="194"/>
@@ -5837,78 +5837,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="208" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="209" t="s">
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="201" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="210"/>
-      <c r="L2" s="211"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="203"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="209" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="210"/>
-      <c r="L3" s="211"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="203"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="209" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="210"/>
-      <c r="L4" s="211"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="203"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="199" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="207"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207" t="s">
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
-      <c r="G6" s="206"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
@@ -6000,58 +6000,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="204" t="s">
+      <c r="A21" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="205" t="s">
+      <c r="B21" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="205" t="s">
+      <c r="C21" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="205" t="s">
+      <c r="D21" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="200" t="s">
+      <c r="E21" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="200" t="s">
+      <c r="F21" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200" t="s">
+      <c r="G21" s="196"/>
+      <c r="H21" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="200" t="s">
+      <c r="I21" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="200" t="s">
+      <c r="J21" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="198" t="s">
+      <c r="K21" s="206" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="196" t="s">
+      <c r="L21" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="204"/>
-      <c r="B22" s="205"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="200"/>
+      <c r="A22" s="211"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="196"/>
       <c r="F22" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="200"/>
-      <c r="I22" s="200"/>
-      <c r="J22" s="200"/>
-      <c r="K22" s="199"/>
-      <c r="L22" s="197"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="207"/>
+      <c r="L22" s="205"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -6096,12 +6096,12 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="203" t="s">
+      <c r="D26" s="210" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="210"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="183" t="s">
@@ -6169,74 +6169,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="202" t="s">
+      <c r="B32" s="209" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="202"/>
-      <c r="D32" s="202"/>
-      <c r="E32" s="202"/>
-      <c r="F32" s="202"/>
-      <c r="G32" s="202"/>
-      <c r="H32" s="202"/>
-      <c r="I32" s="202"/>
-      <c r="J32" s="202"/>
-      <c r="K32" s="202"/>
+      <c r="C32" s="209"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="209"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="209"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="209"/>
+      <c r="J32" s="209"/>
+      <c r="K32" s="209"/>
     </row>
     <row r="33" spans="1:11" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="202" t="s">
+      <c r="A33" s="209" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="202"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="202"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="209"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="209"/>
+      <c r="K33" s="209"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="201" t="s">
+      <c r="A34" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="201"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="201"/>
-      <c r="G34" s="201"/>
-      <c r="H34" s="201"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="201"/>
-      <c r="K34" s="201"/>
+      <c r="B34" s="208"/>
+      <c r="C34" s="208"/>
+      <c r="D34" s="208"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="208"/>
+      <c r="G34" s="208"/>
+      <c r="H34" s="208"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="208"/>
+      <c r="K34" s="208"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="201" t="s">
+      <c r="A35" s="208" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="201"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
-      <c r="E35" s="201"/>
-      <c r="F35" s="201"/>
-      <c r="G35" s="201"/>
+      <c r="B35" s="208"/>
+      <c r="C35" s="208"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="201" t="s">
+      <c r="A36" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="201"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="201"/>
-      <c r="E36" s="201"/>
-      <c r="F36" s="201"/>
-      <c r="G36" s="201"/>
+      <c r="B36" s="208"/>
+      <c r="C36" s="208"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="208"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -6244,22 +6244,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -6276,6 +6260,22 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -6308,62 +6308,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="217" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="224" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="209" t="s">
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="211"/>
+      <c r="K2" s="203"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="209" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="211"/>
+      <c r="K3" s="203"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="209" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="225"/>
+      <c r="J4" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="211"/>
+      <c r="K4" s="203"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="207"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="212"/>
-      <c r="G5" s="212"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -6377,12 +6377,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="219" t="s">
+      <c r="H6" s="226" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="219"/>
-      <c r="J6" s="219"/>
-      <c r="K6" s="219"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -6412,10 +6412,10 @@
       <c r="I7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="213" t="s">
+      <c r="J7" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="214"/>
+      <c r="K7" s="221"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -6429,8 +6429,8 @@
       <c r="G8" s="44"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="221"/>
-      <c r="K8" s="222"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="214"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -6444,8 +6444,8 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="221"/>
-      <c r="K9" s="222"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="214"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
@@ -6459,8 +6459,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="223"/>
-      <c r="K10" s="224"/>
+      <c r="J10" s="215"/>
+      <c r="K10" s="216"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -6474,8 +6474,8 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="223"/>
-      <c r="K11" s="224"/>
+      <c r="J11" s="215"/>
+      <c r="K11" s="216"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -6489,8 +6489,8 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="223"/>
-      <c r="K12" s="224"/>
+      <c r="J12" s="215"/>
+      <c r="K12" s="216"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -6504,14 +6504,14 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="224"/>
+      <c r="J13" s="215"/>
+      <c r="K13" s="216"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="215" t="s">
+      <c r="A14" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="216"/>
+      <c r="B14" s="223"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -6519,35 +6519,44 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="225"/>
-      <c r="K14" s="226"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="218"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="220" t="s">
+      <c r="A16" s="212" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="220"/>
-      <c r="C16" s="220"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="212"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="220" t="s">
+      <c r="E16" s="212" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="220"/>
-      <c r="G16" s="220" t="s">
+      <c r="F16" s="212"/>
+      <c r="G16" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="220"/>
-      <c r="I16" s="220" t="s">
+      <c r="H16" s="212"/>
+      <c r="I16" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="220"/>
-      <c r="K16" s="220"/>
+      <c r="J16" s="212"/>
+      <c r="K16" s="212"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -6559,15 +6568,6 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -6607,48 +6607,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="126" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="209" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="201" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="211"/>
+      <c r="J2" s="203"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="209" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="211"/>
+      <c r="J3" s="203"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="233"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="209" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="211"/>
+      <c r="J4" s="203"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -6694,11 +6694,11 @@
       <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="227" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
       <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
@@ -6708,174 +6708,174 @@
       <c r="G8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="230" t="s">
+      <c r="H8" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="230"/>
-      <c r="J8" s="231"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="228"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="227"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="232"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="227"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="232"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="227"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="232"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="227"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="232"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="227"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="232"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="52"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="227"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="232"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="227"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="232"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="52"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="227"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="232"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="227"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="232"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="52"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="227"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="232"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>11</v>
       </c>
-      <c r="B19" s="228"/>
-      <c r="C19" s="228"/>
-      <c r="D19" s="228"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="228"/>
-      <c r="I19" s="228"/>
-      <c r="J19" s="229"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="234"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -6890,42 +6890,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114" t="s">
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114" t="s">
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="115"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="127"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="104"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="106"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -6935,9 +6935,9 @@
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -6947,9 +6947,9 @@
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -6959,9 +6959,9 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -6969,6 +6969,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="A2:C4"/>
@@ -6976,38 +7008,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
